--- a/data/hw1/S2.xlsx
+++ b/data/hw1/S2.xlsx
@@ -442,7 +442,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CBT_TU_TU - CBT_FV_FV</t>
+          <t>CBT_TU_TU_CBT_FV_FV</t>
         </is>
       </c>
     </row>
